--- a/TC_Cura_AuromationTesting_001.xlsx
+++ b/TC_Cura_AuromationTesting_001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software_testing_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{272EE83B-9AD1-44B4-B2B2-D8ADDF0EB556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5ACDAA-0DE7-415F-A1AE-44D5FAEFC3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8F3F7D33-C4E0-48C7-B5D3-6F2F6DE3A85C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -52,9 +52,6 @@
     <t>TC_002</t>
   </si>
   <si>
-    <t>validate the make appointment</t>
-  </si>
-  <si>
     <t>TC_003</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>TC_cura_loginpage_001</t>
-  </si>
-  <si>
     <t>Functional testing</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>3.select login button</t>
   </si>
   <si>
-    <t>4.click login</t>
-  </si>
-  <si>
     <t>D:\Software_testing_Automation\TC_input_001.xlsx</t>
   </si>
   <si>
@@ -118,23 +109,188 @@
     <t>pass</t>
   </si>
   <si>
-    <t>TC_cura_makeappoin_002</t>
-  </si>
-  <si>
-    <t>validate the make an appointment page</t>
-  </si>
-  <si>
     <t>2.give the url</t>
   </si>
   <si>
-    <t>3.select make appointment button</t>
+    <t>validate the make an appointment button</t>
+  </si>
+  <si>
+    <t>1.Open the broswer</t>
+  </si>
+  <si>
+    <t>4.Enter valid credentials and click login.</t>
+  </si>
+  <si>
+    <t>5.Verify successful login by checking for expected elements on the next page</t>
+  </si>
+  <si>
+    <t>6.Test invalid and empty login scenarios for proper error handling.</t>
+  </si>
+  <si>
+    <t>3. Go to the homepage.</t>
+  </si>
+  <si>
+    <t>4. Confirm "Make Appointment" button visibility.</t>
+  </si>
+  <si>
+    <t>5. Click "Make Appointment."</t>
+  </si>
+  <si>
+    <t>6. Verify redirection to the booking page.</t>
+  </si>
+  <si>
+    <t>7. Check essential elements on the booking page.</t>
+  </si>
+  <si>
+    <t>8. Ensure proper validation for required fields.</t>
+  </si>
+  <si>
+    <t>TC_cura_validateloginpage_001</t>
+  </si>
+  <si>
+    <t>TC_cura_validateappointmentbutton_002</t>
+  </si>
+  <si>
+    <t>TC_input_002.xlsx</t>
+  </si>
+  <si>
+    <t>redirection</t>
+  </si>
+  <si>
+    <t>TC_cura_validateappointment_003</t>
+  </si>
+  <si>
+    <t>validate the book an appointment</t>
+  </si>
+  <si>
+    <t>4. Confirm the visibility of the "Make Appointment" button.</t>
+  </si>
+  <si>
+    <t>5. Click the "Make Appointment" button.</t>
+  </si>
+  <si>
+    <t>6. Ensure redirection to the appointment booking page.</t>
+  </si>
+  <si>
+    <t>7. Validate the presence of required fields (date, doctor selection, etc.).</t>
+  </si>
+  <si>
+    <t>8. Enter valid data.</t>
+  </si>
+  <si>
+    <t>9. Click the "Book Appointment" button.</t>
+  </si>
+  <si>
+    <t>10. Verify successful booking confirmation.</t>
+  </si>
+  <si>
+    <t>11. Validate the booked appointment details on the homepage.</t>
+  </si>
+  <si>
+    <t>TC_input_003.xlsx</t>
+  </si>
+  <si>
+    <t>appointment booked</t>
+  </si>
+  <si>
+    <t>TC_cura_validatehomepage_004</t>
+  </si>
+  <si>
+    <t>2. Go to the homepage.</t>
+  </si>
+  <si>
+    <t>3. Confirm key element visibility.</t>
+  </si>
+  <si>
+    <t>4. Validate user information accuracy.</t>
+  </si>
+  <si>
+    <t>5. Interact with homepage features.</t>
+  </si>
+  <si>
+    <t>6. Check interactive elements functionality.</t>
+  </si>
+  <si>
+    <t>7. Verify consistent display across devices.</t>
+  </si>
+  <si>
+    <t>8. Check for error messages.</t>
+  </si>
+  <si>
+    <t>1. Open the browser and give url</t>
+  </si>
+  <si>
+    <t>TC_input_004.xlsx</t>
+  </si>
+  <si>
+    <t>homepage displayed</t>
+  </si>
+  <si>
+    <t>homepage dispalyed</t>
+  </si>
+  <si>
+    <t>TC_cura_afterappointment_returntohomepage_005</t>
+  </si>
+  <si>
+    <t>validate after appointment return to homepage</t>
+  </si>
+  <si>
+    <t>3. Confirm the visibility of the "Make Appointment" button.</t>
+  </si>
+  <si>
+    <t>4. Click the "Make Appointment" button.</t>
+  </si>
+  <si>
+    <t>5. Ensure redirection to the appointment booking page.</t>
+  </si>
+  <si>
+    <t>6. Validate the presence of required fields (date, doctor selection, etc.).</t>
+  </si>
+  <si>
+    <t>7. Enter valid data.</t>
+  </si>
+  <si>
+    <t>8. Click the "Book Appointment" button.</t>
+  </si>
+  <si>
+    <t>9. Verify successful booking confirmation.</t>
+  </si>
+  <si>
+    <t>10. Validate the booked appointment details on the homepage.</t>
+  </si>
+  <si>
+    <t>11. Return to the homepage after the appointment.</t>
+  </si>
+  <si>
+    <t>12. Confirm the visibility of key elements on the homepage.</t>
+  </si>
+  <si>
+    <t>13. Check for the presence and accuracy of updated user information (if applicable).</t>
+  </si>
+  <si>
+    <t>14. Verify that the booked appointment details are still visible on the homepage.</t>
+  </si>
+  <si>
+    <t>TC_input_005.xlsx</t>
+  </si>
+  <si>
+    <t>return to homepage</t>
+  </si>
+  <si>
+    <t>validate the make appointment button</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>Tc_005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +302,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,9 +343,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -490,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E621381-DF89-411E-8729-12F8FE7D1046}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,10 +683,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -524,15 +703,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -542,19 +737,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA659C1E-ECC2-4D73-BA55-39957976097C}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="57.77734375" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
     <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
     <col min="7" max="7" width="17.88671875" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" customWidth="1"/>
@@ -566,107 +761,395 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E27" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E41" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E42" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E43" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E44" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E45" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E46" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E47" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E48" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{B7FBC4C7-D663-4AA2-BC2E-68FECA793552}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{4EC39963-462D-4E45-9DC2-AAEEAF647E83}"/>
+    <hyperlink ref="F19" r:id="rId3" xr:uid="{1935B19B-4AC6-4C7E-BB6C-C449A0FA6FC0}"/>
+    <hyperlink ref="F31" r:id="rId4" xr:uid="{D4A7E634-1D57-42D9-AEE7-AD4B9EC38B4F}"/>
+    <hyperlink ref="F40" r:id="rId5" xr:uid="{F06BF874-1722-49D3-A39D-B61D8F3E56F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
